--- a/medicine/Psychotrope/Bordeaux_fête_le_vin/Bordeaux_fête_le_vin.xlsx
+++ b/medicine/Psychotrope/Bordeaux_fête_le_vin/Bordeaux_fête_le_vin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bordeaux_f%C3%AAte_le_vin</t>
+          <t>Bordeaux_fête_le_vin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bordeaux Fête le Vin (appelée la « Fête du Vin » par les Bordelais) est un événement festif qui se déroule chaque année, dans le centre de la ville de Bordeaux, le long des quais de la Garonne. Organisé par l'Office de tourisme de Bordeaux métropole, le festival s'étend sur quatre jours. Il a lieu à la fin du mois de juin, au début de l'été. La première édition a eu lieu en 1998.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bordeaux_f%C3%AAte_le_vin</t>
+          <t>Bordeaux_fête_le_vin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,35 +528,425 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024
-L’édition 2024 de Bordeaux Fête le Vin aura lieu du 27 au 30 juin 2024.
-2023
-L’édition 2023 a eu lieu du 22 au 25 juin et en avant-première dans toute la métropole du 15 au 18 juin. Plusieurs grands voiliers se sont de nouveau amarrés le long des quais de la Garonne. En parallèle des dégustations, les festivaliers ont pu profiter de nombreux concerts et animations.
-En 2023, le feu d'artifice a été remplacé par un spectacle de drones dédié au monde du vin[1]. Ce show unique a été créé par l'entreprise Dronisos. 
-2022
-L’édition 2022 a eu lieu du 23 au 26 juin, et a accueilli trois grands voiliers : Le Belem, le Thalassa et le Nao Victoria, réplique du Victoria, premier navire à avoir accompli le tour du monde[2].
-2021
-Du 17 au 21 juin, Bordeaux Fête le Vin a célébré le vin de Bordeaux et de Nouvelle-Aquitaine chez les restaurateurs et cavistes de la métropole en raison de la crise sanitaire. Des voiliers ont fait escales à Bordeaux et des concerts ont été organisés.
-L’exposition « le Chat » de Philippe Geluck initialement prévue en 2020 s’est installée sur les quais pendant trois mois[3].
-2020
-La pandémie de Covid-19 rend impossible la tenue de l'événement en 2020. Il est donc repoussée l'année suivante, sous un format adapté à la crise sanitaire[4].
-2018
-L'édition 2018 a eu lieu du 14 au 18 juin[5] en recevant une étape de la Three Festivals Tall Ship's Regatta 2018 sur les quais de la Garonne et un rassemblement de grands voiliers traditionnels. Cette édition a réuni plus de 400 000 personnes[4].
-2016
-L'édition 2016 a eu lieu du 23 au 26 juin[6].
-2014
-L'édition 2014 a eu lieu du 26 au 29 juin[7].
-Cette année, Los Angeles et Bordeaux célèbrent le cinquantième anniversaire de leur jumelage. La ville californienne fut l'invitée d'honneur[8].
-2012
-L'édition 2012 a eu lieu du 28 juin au 1er juillet[9]. Pour la première fois, Bordeaux a accueilli dans le cadre de cette édition le « Festival international d'art pyrotechnique de Bordeaux ». Chaque soir, une firme représentant une nation s'est produite en spectacle. Les spectacles pyrotechniques sont tirés depuis des barges sur la Garonne.
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’édition 2024 de Bordeaux Fête le Vin aura lieu du 27 au 30 juin 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bordeaux_fête_le_vin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bordeaux_f%C3%AAte_le_vin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’édition 2023 a eu lieu du 22 au 25 juin et en avant-première dans toute la métropole du 15 au 18 juin. Plusieurs grands voiliers se sont de nouveau amarrés le long des quais de la Garonne. En parallèle des dégustations, les festivaliers ont pu profiter de nombreux concerts et animations.
+En 2023, le feu d'artifice a été remplacé par un spectacle de drones dédié au monde du vin. Ce show unique a été créé par l'entreprise Dronisos. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bordeaux_fête_le_vin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bordeaux_f%C3%AAte_le_vin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’édition 2022 a eu lieu du 23 au 26 juin, et a accueilli trois grands voiliers : Le Belem, le Thalassa et le Nao Victoria, réplique du Victoria, premier navire à avoir accompli le tour du monde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bordeaux_fête_le_vin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bordeaux_f%C3%AAte_le_vin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du 17 au 21 juin, Bordeaux Fête le Vin a célébré le vin de Bordeaux et de Nouvelle-Aquitaine chez les restaurateurs et cavistes de la métropole en raison de la crise sanitaire. Des voiliers ont fait escales à Bordeaux et des concerts ont été organisés.
+L’exposition « le Chat » de Philippe Geluck initialement prévue en 2020 s’est installée sur les quais pendant trois mois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bordeaux_fête_le_vin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bordeaux_f%C3%AAte_le_vin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pandémie de Covid-19 rend impossible la tenue de l'événement en 2020. Il est donc repoussée l'année suivante, sous un format adapté à la crise sanitaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bordeaux_fête_le_vin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bordeaux_f%C3%AAte_le_vin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'édition 2018 a eu lieu du 14 au 18 juin en recevant une étape de la Three Festivals Tall Ship's Regatta 2018 sur les quais de la Garonne et un rassemblement de grands voiliers traditionnels. Cette édition a réuni plus de 400 000 personnes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bordeaux_fête_le_vin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bordeaux_f%C3%AAte_le_vin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'édition 2016 a eu lieu du 23 au 26 juin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bordeaux_fête_le_vin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bordeaux_f%C3%AAte_le_vin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'édition 2014 a eu lieu du 26 au 29 juin.
+Cette année, Los Angeles et Bordeaux célèbrent le cinquantième anniversaire de leur jumelage. La ville californienne fut l'invitée d'honneur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bordeaux_fête_le_vin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bordeaux_f%C3%AAte_le_vin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'édition 2012 a eu lieu du 28 juin au 1er juillet. Pour la première fois, Bordeaux a accueilli dans le cadre de cette édition le « Festival international d'art pyrotechnique de Bordeaux ». Chaque soir, une firme représentant une nation s'est produite en spectacle. Les spectacles pyrotechniques sont tirés depuis des barges sur la Garonne.
 Les nations représentées durant le festival étaient les États-Unis, l'Australie, l'Espagne et la France (hors concours).
-2010
-Cette édition a eu lieu du 24 au 27 juin 2010[10] et a accueilli plus de 500 000 visiteurs[9].
-2008
-L'édition a eu lieu du 26 au 29 juin 2008[11].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bordeaux_fête_le_vin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bordeaux_f%C3%AAte_le_vin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette édition a eu lieu du 24 au 27 juin 2010 et a accueilli plus de 500 000 visiteurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bordeaux_fête_le_vin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bordeaux_f%C3%AAte_le_vin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'édition a eu lieu du 26 au 29 juin 2008.
 Pour fêter le dixième anniversaire de la création de cette manifestation, l'inscription de la façade des quais au patrimoine mondial de l’UNESCO et pour soutenir la candidature de Bordeaux Capitale de la Culture en 2013, 4 spectacles pyrotechniques représentant chacun une saison seront organisés. La bande-son est diffusée sur France Bleu Gironde.
-2006
-L'édition a eu lieu du 29 juin au 2 juillet 2006[12].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bordeaux_fête_le_vin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bordeaux_f%C3%AAte_le_vin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'édition a eu lieu du 29 juin au 2 juillet 2006.
 La manifestation a accueilli près de 300 000 visiteurs venus de tous les départements français et d’une vingtaine de pays. Plus de 2 000 amateurs ont fréquenté les ateliers de l’École du Vin[réf. nécessaire].
 </t>
         </is>
